--- a/掲示板DB.xlsx
+++ b/掲示板DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama\Documents\東京テクニカルカレッジ\プログラミング\掲示板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
